--- a/results/Case900-J2の詳細比較.xlsx
+++ b/results/Case900-J2の詳細比較.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Programs/EnergyPlus_SHASEG1008/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3863427-3005-194E-A32F-65532ABA455F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90821C36-C06D-2745-9286-06F65AE8811E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1000" windowWidth="27940" windowHeight="30780" xr2:uid="{418887C5-146E-9145-8609-B33F0673B40F}"/>
+    <workbookView xWindow="3860" yWindow="1160" windowWidth="55900" windowHeight="31600" xr2:uid="{418887C5-146E-9145-8609-B33F0673B40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$15</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
-  <si>
-    <t>900-J2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>BEST</t>
   </si>
@@ -103,115 +103,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EnergyPlus-m</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    50,                      !- Maximum Heating Supply Air Temperature {C}
-    13,                      !- Minimum Cooling Supply Air Temperature {C}
-    0.010,                   !- Maximum Heating Supply Air Humidity Ratio {kgWater/kgDryAir}
-    0.010,                   !- Minimum Cooling Supply Air Humidity Ratio {kgWater/kgDryAir}
-    ,                        !- Heating Limit
-    ,                        !- Maximum Heating Air Flow Rate {m3/s}
-    ,                        !- Maximum Sensible Heating Capacity {W}
-    ,                        !- Cooling Limit
-    ,                        !- Maximum Cooling Air Flow Rate {m3/s}
-    ,                        !- Maximum Total Cooling Capacity {W}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    50,                      !- Maximum Heating Supply Air Temperature {C}
-    13,                      !- Minimum Cooling Supply Air Temperature {C}
-    0.010,                   !- Maximum Heating Supply Air Humidity Ratio {kgWater/kgDryAir}
-    0.010,                   !- Minimum Cooling Supply Air Humidity Ratio {kgWater/kgDryAir}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">    LimitCapacity,           !- Heating Limit
-    1000,                    !- Maximum Heating Air Flow Rate {m3/s}
-    1000000,                 !- Maximum Sensible Heating Capacity {W}
-    LimitFlowRateAndCapacity,!- Cooling Limit
-    1000,                    !- Maximum Cooling Air Flow Rate {m3/s}
-    1000000,                 !- Maximum Total Cooling Capacity {W}</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">    35,                      !- Maximum Heating Supply Air Temperature {C}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    13,                      !- Minimum Cooling Supply Air Temperature {C}
-    0.010,                   !- Maximum Heating Supply Air Humidity Ratio {kgWater/kgDryAir}
-    0.010,                   !- Minimum Cooling Supply Air Humidity Ratio {kgWater/kgDryAir}
-    ,                        !- Heating Limit
-    ,                        !- Maximum Heating Air Flow Rate {m3/s}
-    ,                        !- Maximum Sensible Heating Capacity {W}
-    ,                        !- Cooling Limit
-    ,                        !- Maximum Cooling Air Flow Rate {m3/s}
-    ,                        !- Maximum Total Cooling Capacity {W}</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    35,                      !- Maximum Heating Supply Air Temperature {C}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">    12,                      !- Minimum Cooling Supply Air Temperature {C}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    0.010,                   !- Maximum Heating Supply Air Humidity Ratio {kgWater/kgDryAir}
-    0.010,                   !- Minimum Cooling Supply Air Humidity Ratio {kgWater/kgDryAir}
-    ,                        !- Heating Limit
-    ,                        !- Maximum Heating Air Flow Rate {m3/s}
-    ,                        !- Maximum Sensible Heating Capacity {W}
-    ,                        !- Cooling Limit
-    ,                        !- Maximum Cooling Air Flow Rate {m3/s}
-    ,                        !- Maximum Total Cooling Capacity {W}</t>
-    </r>
-    <phoneticPr fontId="1"/>
+    <t>IDF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EnergyPlus-m1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EnergyPlus-m2</t>
+  </si>
+  <si>
+    <t>EnergyPlus-m3</t>
+  </si>
+  <si>
+    <t>EnergyPlus-m4</t>
+  </si>
+  <si>
+    <t>EnergyPlus-m5</t>
+  </si>
+  <si>
+    <t>EnergyPlus-m6</t>
   </si>
   <si>
     <t xml:space="preserve">    35,                      !- Maximum Heating Supply Air Temperature {C}
@@ -225,55 +137,17 @@
     1000,                    !- Maximum Cooling Air Flow Rate {m3/s}
     1000000,                 !- Maximum Total Cooling Capacity {W}
     Block1:Zone1 Heating Availability Sch,  !- Heating Availability Schedule Name
-    Block1:Zone1 Cooling Availability Sch,  !- Cooling Availability Schedule Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IDF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    35,                      !- Maximum Heating Supply Air Temperature {C}
-    12,                      !- Minimum Cooling Supply Air Temperature {C}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">    0.0156,                  !- Maximum Heating Supply Air Humidity Ratio {kgWater/kgDryAir}
-    0.0077,                  !- Minimum Cooling Supply Air Humidity Ratio {kgWater/kgDryAir}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    ,                        !- Heating Limit
-    ,                        !- Maximum Heating Air Flow Rate {m3/s}
-    ,                        !- Maximum Sensible Heating Capacity {W}
-    ,                        !- Cooling Limit
-    ,                        !- Maximum Cooling Air Flow Rate {m3/s}
-    ,                        !- Maximum Total Cooling Capacity {W}</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    35,                      !- Maximum Heating Supply Air Temperature {C}
-    12,                      !- Minimum Cooling Supply Air Temperature {C}
-    0.0156,                  !- Maximum Heating Supply Air Humidity Ratio {kgWater/kgDryAir}
-    0.0077,                  !- Minimum Cooling Supply Air Humidity Ratio {kgWater/kgDryAir}
+    Block1:Zone1 Cooling Availability Sch,  !- Cooling Availability Schedule Name
+    ,  !- Dehumidification Control Type
+    ,  !- Humidification Control Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    50,                      !- Maximum Heating Supply Air Temperature {C}
+    13,                      !- Minimum Cooling Supply Air Temperature {C}
+    0.010,                   !- Maximum Heating Supply Air Humidity Ratio {kgWater/kgDryAir}
+    0.010,                   !- Minimum Cooling Supply Air Humidity Ratio {kgWater/kgDryAir}
 </t>
     </r>
     <r>
@@ -290,6 +164,208 @@
     LimitFlowRateAndCapacity,!- Cooling Limit
     1000,                    !- Maximum Cooling Air Flow Rate {m3/s}
     1000000,                 !- Maximum Total Cooling Capacity {W}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    ConstantSupplyHumidityRatio,  !- Dehumidification Control Type
+    ConstantSupplyHumidityRatio,  !- Humidification Control Type</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">    35,                      !- Maximum Heating Supply Air Temperature {C}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    13,                      !- Minimum Cooling Supply Air Temperature {C}
+    0.010,                   !- Maximum Heating Supply Air Humidity Ratio {kgWater/kgDryAir}
+    0.010,                   !- Minimum Cooling Supply Air Humidity Ratio {kgWater/kgDryAir}
+    ,                        !- Heating Limit
+    ,                        !- Maximum Heating Air Flow Rate {m3/s}
+    ,                        !- Maximum Sensible Heating Capacity {W}
+    ,                        !- Cooling Limit
+    ,                        !- Maximum Cooling Air Flow Rate {m3/s}
+    ,                        !- Maximum Total Cooling Capacity {W}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    ConstantSupplyHumidityRatio,  !- Dehumidification Control Type
+    ConstantSupplyHumidityRatio,  !- Humidification Control Type</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    35,                      !- Maximum Heating Supply Air Temperature {C}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">    12,                      !- Minimum Cooling Supply Air Temperature {C}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    0.010,                   !- Maximum Heating Supply Air Humidity Ratio {kgWater/kgDryAir}
+    0.010,                   !- Minimum Cooling Supply Air Humidity Ratio {kgWater/kgDryAir}
+    ,                        !- Heating Limit
+    ,                        !- Maximum Heating Air Flow Rate {m3/s}
+    ,                        !- Maximum Sensible Heating Capacity {W}
+    ,                        !- Cooling Limit
+    ,                        !- Maximum Cooling Air Flow Rate {m3/s}
+    ,                        !- Maximum Total Cooling Capacity {W}
+    ConstantSupplyHumidityRatio,  !- Dehumidification Control Type
+    ConstantSupplyHumidityRatio,  !- Humidification Control Type</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    35,                      !- Maximum Heating Supply Air Temperature {C}
+    12,                      !- Minimum Cooling Supply Air Temperature {C}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">    0.0156,                  !- Maximum Heating Supply Air Humidity Ratio {kgWater/kgDryAir}
+    0.0077,                  !- Minimum Cooling Supply Air Humidity Ratio {kgWater/kgDryAir}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    ,                        !- Heating Limit
+    ,                        !- Maximum Heating Air Flow Rate {m3/s}
+    ,                        !- Maximum Sensible Heating Capacity {W}
+    ,                        !- Cooling Limit
+    ,                        !- Maximum Cooling Air Flow Rate {m3/s}
+    ,                        !- Maximum Total Cooling Capacity {W}
+    ConstantSupplyHumidityRatio,  !- Dehumidification Control Type
+    ConstantSupplyHumidityRatio,  !- Humidification Control Type</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    35,                      !- Maximum Heating Supply Air Temperature {C}
+    12,                      !- Minimum Cooling Supply Air Temperature {C}
+    0.0156,                  !- Maximum Heating Supply Air Humidity Ratio {kgWater/kgDryAir}
+    0.0077,                  !- Minimum Cooling Supply Air Humidity Ratio {kgWater/kgDryAir}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">    LimitCapacity,           !- Heating Limit
+    1000,                    !- Maximum Heating Air Flow Rate {m3/s}
+    1000000,                 !- Maximum Sensible Heating Capacity {W}
+    LimitFlowRateAndCapacity,!- Cooling Limit
+    1000,                    !- Maximum Cooling Air Flow Rate {m3/s}
+    1000000,                 !- Maximum Total Cooling Capacity {W}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    ConstantSupplyHumidityRatio,  !- Dehumidification Control Type
+    ConstantSupplyHumidityRatio,  !- Humidification Control Type</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    35,                      !- Maximum Heating Supply Air Temperature {C}
+    12,                      !- Minimum Cooling Supply Air Temperature {C}
+    0.0156,                  !- Maximum Heating Supply Air Humidity Ratio {kgWater/kgDryAir}
+    0.0077,                  !- Minimum Cooling Supply Air Humidity Ratio {kgWater/kgDryAir}
+    LimitCapacity,           !- Heating Limit
+    1000,                    !- Maximum Heating Air Flow Rate {m3/s}
+    1000000,                 !- Maximum Sensible Heating Capacity {W}
+    LimitFlowRateAndCapacity,!- Cooling Limit
+    1000,                    !- Maximum Cooling Air Flow Rate {m3/s}
+    1000000,                 !- Maximum Total Cooling Capacity {W}
+    Block1:Zone1 Heating Availability Sch,  !- Heating Availability Schedule Name
+    Block1:Zone1 Cooling Availability Sch,  !- Cooling Availability Schedule Name
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">    ,  !- Dehumidification Control Type
+    ,  !- Humidification Control Type</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -316,7 +392,114 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">    Block1:Zone1 Heating Availability Sch,  !- Heating Availability Schedule Name
-    Block1:Zone1 Cooling Availability Sch,  !- Cooling Availability Schedule Name</t>
+    Block1:Zone1 Cooling Availability Sch,  !- Cooling Availability Schedule Name
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">    ConstantSupplyHumidityRatio,  !- Dehumidification Control Type
+    ConstantSupplyHumidityRatio,  !- Humidification Control Type</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EnergyPlus-m8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EnergyPlus-m7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case 900-J2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    35,                      !- Maximum Heating Supply Air Temperature {C}
+    12,                      !- Minimum Cooling Supply Air Temperature {C}
+    0.0156,                  !- Maximum Heating Supply Air Humidity Ratio {kgWater/kgDryAir}
+    0.0077,                  !- Minimum Cooling Supply Air Humidity Ratio {kgWater/kgDryAir}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">    LimitCapacity,           !- Heating Limit
+    1000,                    !- Maximum Heating Air Flow Rate {m3/s}
+    1000000,                 !- Maximum Sensible Heating Capacity {W}
+    LimitFlowRateAndCapacity,!- Cooling Limit
+    1000,                    !- Maximum Cooling Air Flow Rate {m3/s}
+    1000000,                 !- Maximum Total Cooling Capacity {W}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    Block1:Zone1 Heating Availability Sch,  !- Heating Availability Schedule Name
+    Block1:Zone1 Cooling Availability Sch,  !- Cooling Availability Schedule Name
+    ,  !- Dehumidification Control Type
+    ,  !- Humidification Control Type</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">    50,                      !- Maximum Heating Supply Air Temperature {C}
+    13,                      !- Minimum Cooling Supply Air Temperature {C}
+    0.010,                   !- Maximum Heating Supply Air Humidity Ratio {kgWater/kgDryAir}
+    0.010,                   !- Minimum Cooling Supply Air Humidity Ratio {kgWater/kgDryAir}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">    ,                        !- Heating Limit
+    ,                        !- Maximum Heating Air Flow Rate {m3/s}
+    ,                        !- Maximum Sensible Heating Capacity {W}
+    ,                        !- Cooling Limit
+    ,                        !- Maximum Cooling Air Flow Rate {m3/s}
+    ,                        !- Maximum Total Cooling Capacity {W}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    ConstantSupplyHumidityRatio,  !- Dehumidification Control Type
+    ConstantSupplyHumidityRatio,  !- Humidification Control Type</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -329,7 +512,7 @@
     <numFmt numFmtId="176" formatCode="0.000_)"/>
     <numFmt numFmtId="177" formatCode="0.00000_);[Red]\(0.00000\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -365,6 +548,19 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -422,7 +618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -476,6 +672,12 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,10 +993,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E24E34-0598-8644-8055-60F4A1D98FDC}">
-  <dimension ref="A1:F13"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="91" zoomScaleNormal="126" zoomScaleSheetLayoutView="223" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -808,30 +1013,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="9" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="35" customHeight="1">
       <c r="A2" s="12"/>
       <c r="B2" s="13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8">
@@ -849,7 +1054,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8">
@@ -867,7 +1072,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8">
@@ -883,24 +1088,32 @@
         <v>3.4150783333333301</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="252">
+    <row r="6" spans="1:6" ht="294">
       <c r="A6" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:6" ht="210">
+        <v>26</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1.0514450234981501</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1.2746003554420899</v>
+      </c>
+      <c r="E6" s="17">
+        <v>7.9369027700728401</v>
+      </c>
+      <c r="F6" s="17">
+        <v>2.86062999887436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="252">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C7" s="3">
         <v>1.0566275969894201</v>
@@ -915,12 +1128,12 @@
         <v>2.8467998074752998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="210">
+    <row r="8" spans="1:6" ht="252">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3">
         <v>1.0566275969894201</v>
@@ -935,12 +1148,12 @@
         <v>2.8467998074752998</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="210">
+    <row r="9" spans="1:6" ht="252">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3">
         <v>1.0271164879631201</v>
@@ -955,12 +1168,12 @@
         <v>2.84679980747205</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="210">
+    <row r="10" spans="1:6" ht="252">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3">
         <v>1.0271165018622499</v>
@@ -975,12 +1188,12 @@
         <v>2.8468010128933599</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="210">
+    <row r="11" spans="1:6" ht="252">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3">
         <v>1.02700068665785</v>
@@ -995,12 +1208,12 @@
         <v>2.8468737313399402</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="210">
+    <row r="12" spans="1:6" ht="252">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3">
         <v>1.02730222574828</v>
@@ -1015,12 +1228,12 @@
         <v>2.8469895429502698</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="252">
+    <row r="13" spans="1:6" ht="294">
       <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="3">
         <v>1.02730222574828</v>
@@ -1035,8 +1248,49 @@
         <v>2.8469895429502698</v>
       </c>
     </row>
+    <row r="14" spans="1:6" ht="294">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.02730222574828</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.33702583120735</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7.9369025852099897</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2.8469895429502698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="294">
+      <c r="A15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="17">
+        <v>1.0514450234981501</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1.2746003554420899</v>
+      </c>
+      <c r="E15" s="17">
+        <v>7.9369027700728401</v>
+      </c>
+      <c r="F15" s="17">
+        <v>2.86062999887436</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="49" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>